--- a/Code/Results/Cases/Case_4_161/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_161/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.66846335324817</v>
+        <v>15.68670340226296</v>
       </c>
       <c r="C2">
-        <v>14.12049541295157</v>
+        <v>8.645917167609184</v>
       </c>
       <c r="D2">
-        <v>10.32819216079158</v>
+        <v>14.43333543672883</v>
       </c>
       <c r="E2">
-        <v>9.984623637141411</v>
+        <v>15.44254618752152</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.09349805818075</v>
+        <v>3.677402443275819</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.157065539852665</v>
+        <v>9.096773840085076</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.96642163773125</v>
+        <v>18.86077316530296</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.83887062511094</v>
+        <v>28.43863896190724</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.25602968888288</v>
+        <v>15.21185872919236</v>
       </c>
       <c r="C3">
-        <v>13.20579875450397</v>
+        <v>8.212228676119329</v>
       </c>
       <c r="D3">
-        <v>10.03516773496031</v>
+        <v>14.4246015239065</v>
       </c>
       <c r="E3">
-        <v>9.850684318845284</v>
+        <v>15.46646741010058</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.101131742943674</v>
+        <v>3.680198141095391</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.205191288149173</v>
+        <v>9.119585525166983</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.14611824195355</v>
+        <v>18.7166334767016</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.60578035094754</v>
+        <v>28.51686475387129</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.33928302511186</v>
+        <v>14.91519564203852</v>
       </c>
       <c r="C4">
-        <v>12.61292223538762</v>
+        <v>7.934398733388688</v>
       </c>
       <c r="D4">
-        <v>9.858801909577229</v>
+        <v>14.42228448068016</v>
       </c>
       <c r="E4">
-        <v>9.775004836513226</v>
+        <v>15.48404078392964</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.105945300927</v>
+        <v>3.682004624348735</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.236382822285854</v>
+        <v>9.134454705880648</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.62696534188049</v>
+        <v>18.6308508145606</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.48564282139079</v>
+        <v>28.57275906408025</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.95314417713174</v>
+        <v>14.79320698060694</v>
       </c>
       <c r="C5">
-        <v>12.36343298969942</v>
+        <v>7.818405209404197</v>
       </c>
       <c r="D5">
-        <v>9.787892351960268</v>
+        <v>14.42210716610191</v>
       </c>
       <c r="E5">
-        <v>9.745789074176484</v>
+        <v>15.49192673055767</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.107939946097604</v>
+        <v>3.682763468642071</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.249502663489647</v>
+        <v>9.140731397958101</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.41173665124424</v>
+        <v>18.596607564568</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.44226299604591</v>
+        <v>28.59750487615851</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.88826458656944</v>
+        <v>14.7728904088164</v>
       </c>
       <c r="C6">
-        <v>12.32152847062741</v>
+        <v>7.798981082912236</v>
       </c>
       <c r="D6">
-        <v>9.776177925411918</v>
+        <v>14.42212406363818</v>
       </c>
       <c r="E6">
-        <v>9.741035122727528</v>
+        <v>15.49327992217164</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.108273189590004</v>
+        <v>3.682890846740162</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.25170580386779</v>
+        <v>9.141786780227902</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.37578388009642</v>
+        <v>18.59096546855045</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.43539049298283</v>
+        <v>28.60173251855675</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.33412640633858</v>
+        <v>14.91355464007563</v>
       </c>
       <c r="C7">
-        <v>12.6095895026644</v>
+        <v>7.932845458282475</v>
       </c>
       <c r="D7">
-        <v>9.857841616781347</v>
+        <v>14.42227898316376</v>
       </c>
       <c r="E7">
-        <v>9.774604281548115</v>
+        <v>15.48414420386079</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.105972065818653</v>
+        <v>3.68201476642336</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.236558109632181</v>
+        <v>9.134538474795253</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.62407722200414</v>
+        <v>18.63038606892406</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.48503548059976</v>
+        <v>28.5730848368479</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.19166507907402</v>
+        <v>15.52414553507119</v>
       </c>
       <c r="C8">
-        <v>13.81157275192247</v>
+        <v>8.498846964432841</v>
       </c>
       <c r="D8">
-        <v>10.22645981951762</v>
+        <v>14.42969263390631</v>
       </c>
       <c r="E8">
-        <v>9.937065479425486</v>
+        <v>15.45019477048745</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.096104708214551</v>
+        <v>3.678347785514917</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.17331597564473</v>
+        <v>9.104460519814102</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.68691504765823</v>
+        <v>18.81052767427402</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.75361458339577</v>
+        <v>28.46397397936624</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.44654489400309</v>
+        <v>16.67341620548537</v>
       </c>
       <c r="C9">
-        <v>15.92257476633904</v>
+        <v>9.512614586262963</v>
       </c>
       <c r="D9">
-        <v>10.97473764486478</v>
+        <v>14.46833161239796</v>
       </c>
       <c r="E9">
-        <v>10.30872700781029</v>
+        <v>15.40655472620081</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.077695614329587</v>
+        <v>3.671866700219264</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.062530676351058</v>
+        <v>9.052302903126948</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.6406782041837</v>
+        <v>19.18399534145972</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.47092417330165</v>
+        <v>28.31277643831811</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.60886273593873</v>
+        <v>17.47929585843016</v>
       </c>
       <c r="C10">
-        <v>17.3267586316393</v>
+        <v>10.19389893813938</v>
       </c>
       <c r="D10">
-        <v>11.53676417390453</v>
+        <v>14.51129833390848</v>
       </c>
       <c r="E10">
-        <v>10.61548347520102</v>
+        <v>15.38851931266488</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.064649527618073</v>
+        <v>3.667532793677949</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.989533911591308</v>
+        <v>9.018115634011727</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.0542016693472</v>
+        <v>19.46880724780865</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.12454707623277</v>
+        <v>28.24043999257902</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.54452439511634</v>
+        <v>17.83589336846554</v>
       </c>
       <c r="C11">
-        <v>17.93456046636825</v>
+        <v>10.48928776472325</v>
       </c>
       <c r="D11">
-        <v>11.79459816523401</v>
+        <v>14.53397640552571</v>
       </c>
       <c r="E11">
-        <v>10.76263888406338</v>
+        <v>15.38336674320291</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.058795423459135</v>
+        <v>3.665653002960921</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.958239445310276</v>
+        <v>9.003454533518958</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.75478187673928</v>
+        <v>19.60022154192679</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.45140006832995</v>
+        <v>28.21603768858275</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.89208292342581</v>
+        <v>17.96936915130005</v>
       </c>
       <c r="C12">
-        <v>18.16034724369499</v>
+        <v>10.59900668039275</v>
       </c>
       <c r="D12">
-        <v>11.89251569321643</v>
+        <v>14.54301067386584</v>
       </c>
       <c r="E12">
-        <v>10.81948211639687</v>
+        <v>15.38185463225694</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.056588103352949</v>
+        <v>3.664954283814949</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.946673166325325</v>
+        <v>8.998030426633393</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.01520737956719</v>
+        <v>19.65021522494945</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.57957038562415</v>
+        <v>28.20802649150713</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.81752806221502</v>
+        <v>17.94069393663952</v>
       </c>
       <c r="C13">
-        <v>18.11191323919833</v>
+        <v>10.57547253537069</v>
       </c>
       <c r="D13">
-        <v>11.87141523162501</v>
+        <v>14.54104518740944</v>
       </c>
       <c r="E13">
-        <v>10.80718973378779</v>
+        <v>15.38216076403102</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.057063102095771</v>
+        <v>3.665104183271275</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.949151366053846</v>
+        <v>8.999192929949135</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.95933468266514</v>
+        <v>19.63943854484846</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.55176856610065</v>
+        <v>28.2096970696514</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.57325278941707</v>
+        <v>17.84690641757254</v>
       </c>
       <c r="C14">
-        <v>17.9532232730036</v>
+        <v>10.49835750996148</v>
       </c>
       <c r="D14">
-        <v>11.80264838739669</v>
+        <v>14.53471073395169</v>
       </c>
       <c r="E14">
-        <v>10.76729284038074</v>
+        <v>15.38323354109459</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.058613648168593</v>
+        <v>3.665595256453492</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.957282125432017</v>
+        <v>9.003005731110427</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.77630412086918</v>
+        <v>19.60433015283832</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.46185569480402</v>
+        <v>28.21535392782272</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.42275171222245</v>
+        <v>17.78925230531394</v>
       </c>
       <c r="C15">
-        <v>17.85545386462717</v>
+        <v>10.45084255390098</v>
       </c>
       <c r="D15">
-        <v>11.76056267555771</v>
+        <v>14.53088873308269</v>
       </c>
       <c r="E15">
-        <v>10.74300130091828</v>
+        <v>15.38394782887506</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.059564574364832</v>
+        <v>3.665897758989019</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.962299768541446</v>
+        <v>9.005357805708599</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.66356214711038</v>
+        <v>19.58285411192415</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.40735877778476</v>
+        <v>28.21897920781901</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.54676154200621</v>
+        <v>17.45577941778552</v>
       </c>
       <c r="C16">
-        <v>17.2864207182619</v>
+        <v>10.17429778608628</v>
       </c>
       <c r="D16">
-        <v>11.51995484841778</v>
+        <v>14.509878980823</v>
       </c>
       <c r="E16">
-        <v>10.60602167364414</v>
+        <v>15.38891747770534</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.065033555157557</v>
+        <v>3.667657481902033</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.991618318874255</v>
+        <v>9.019091665939291</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.00772918879792</v>
+        <v>19.46025317646367</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.10379360147479</v>
+        <v>28.24220643833035</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.99717902420133</v>
+        <v>17.2485522933814</v>
       </c>
       <c r="C17">
-        <v>16.92945885348395</v>
+        <v>10.00088693370901</v>
       </c>
       <c r="D17">
-        <v>11.37287920338916</v>
+        <v>14.49778985367909</v>
       </c>
       <c r="E17">
-        <v>10.52395471584738</v>
+        <v>15.39274804918625</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.068407820782183</v>
+        <v>3.668760455719391</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.010100230388831</v>
+        <v>9.027744849064796</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.60423557908572</v>
+        <v>19.38548999697144</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.92523630551894</v>
+        <v>28.25863853825635</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.67654772800377</v>
+        <v>17.12842581384784</v>
       </c>
       <c r="C18">
-        <v>16.72122371429532</v>
+        <v>9.899780141590526</v>
       </c>
       <c r="D18">
-        <v>11.28849007117175</v>
+        <v>14.4911315953015</v>
       </c>
       <c r="E18">
-        <v>10.47746671096617</v>
+        <v>15.39523854480896</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.070356334383625</v>
+        <v>3.669403495029521</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.020909881885324</v>
+        <v>9.032805804820205</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.40349689404644</v>
+        <v>19.34266470089861</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.82530423955288</v>
+        <v>28.26888992414067</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.56720589129871</v>
+        <v>17.08759640134831</v>
       </c>
       <c r="C19">
-        <v>16.65021508233061</v>
+        <v>9.865314249320441</v>
       </c>
       <c r="D19">
-        <v>11.25995366117966</v>
+        <v>14.48892801418372</v>
       </c>
       <c r="E19">
-        <v>10.46184873429365</v>
+        <v>15.39613111035036</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.071017454993827</v>
+        <v>3.669622702904184</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.024600385640614</v>
+        <v>9.034533774276673</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.33521363623096</v>
+        <v>19.32819621122336</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.79193987818121</v>
+        <v>28.27249806991958</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.05615042551475</v>
+        <v>17.27070965807233</v>
       </c>
       <c r="C20">
-        <v>16.96775973126792</v>
+        <v>10.01948851903395</v>
       </c>
       <c r="D20">
-        <v>11.3885147075287</v>
+        <v>14.49904624772578</v>
       </c>
       <c r="E20">
-        <v>10.53261674435129</v>
+        <v>15.39231054669436</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.068047839437695</v>
+        <v>3.668642148809266</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.008114174879708</v>
+        <v>9.026815025036331</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.64123705688206</v>
+        <v>19.39343065996999</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.94395629608155</v>
+        <v>28.25680645838723</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.64518452388623</v>
+        <v>17.87449732951546</v>
       </c>
       <c r="C21">
-        <v>17.99995241890478</v>
+        <v>10.52106644171516</v>
       </c>
       <c r="D21">
-        <v>11.82283941714332</v>
+        <v>14.53655922963015</v>
       </c>
       <c r="E21">
-        <v>10.77898095485771</v>
+        <v>15.3829065239259</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.058157974988548</v>
+        <v>3.66545066095069</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.954886128649064</v>
+        <v>9.001882355254812</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.83019580173452</v>
+        <v>19.61463638870708</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.48814469967876</v>
+        <v>28.21365895617009</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.64440361398852</v>
+        <v>18.25996722016481</v>
       </c>
       <c r="C22">
-        <v>18.64909420094981</v>
+        <v>10.83639587509705</v>
       </c>
       <c r="D22">
-        <v>12.10833103706867</v>
+        <v>14.56367698602896</v>
       </c>
       <c r="E22">
-        <v>10.94652859199175</v>
+        <v>15.37931956346355</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.051748641916403</v>
+        <v>3.663441260261362</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.921760741722981</v>
+        <v>8.986331776222336</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.57928020127197</v>
+        <v>19.76053044496789</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.86951091779941</v>
+        <v>28.19262816721849</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.11464794132044</v>
+        <v>18.05510799359187</v>
       </c>
       <c r="C23">
-        <v>18.30493601178681</v>
+        <v>10.66925441079141</v>
       </c>
       <c r="D23">
-        <v>11.95581578939382</v>
+        <v>14.54896714649543</v>
       </c>
       <c r="E23">
-        <v>10.85649842413265</v>
+        <v>15.38099981367808</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.055165203273508</v>
+        <v>3.664506746747425</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.939284845777146</v>
+        <v>8.994563424674375</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.18203006370519</v>
+        <v>19.68255500664968</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.66356558565074</v>
+        <v>28.20319477336776</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.02950400862744</v>
+        <v>17.26069538412787</v>
       </c>
       <c r="C24">
-        <v>16.95045329511343</v>
+        <v>10.01108313222631</v>
       </c>
       <c r="D24">
-        <v>11.38144537469907</v>
+        <v>14.49847732232586</v>
       </c>
       <c r="E24">
-        <v>10.52869848332034</v>
+        <v>15.39250744371042</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.0682105600504</v>
+        <v>3.668695607555608</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.009011497661044</v>
+        <v>9.027235130165138</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.62451473408695</v>
+        <v>19.38984019424099</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.93548451873103</v>
+        <v>28.25763223656643</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.60678739654477</v>
+        <v>16.36865806082159</v>
       </c>
       <c r="C25">
-        <v>15.37753424256092</v>
+        <v>9.249224222490117</v>
       </c>
       <c r="D25">
-        <v>10.76994837382515</v>
+        <v>14.4553083926683</v>
       </c>
       <c r="E25">
-        <v>10.20235883144085</v>
+        <v>15.41589984754588</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.082584334539914</v>
+        <v>3.673544529228796</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.091053473874061</v>
+        <v>9.06568514329375</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.12699854468091</v>
+        <v>19.08099138126845</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.25534367051448</v>
+        <v>28.34690744910055</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_161/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_161/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.68670340226296</v>
+        <v>20.66846335324812</v>
       </c>
       <c r="C2">
-        <v>8.645917167609184</v>
+        <v>14.12049541295162</v>
       </c>
       <c r="D2">
-        <v>14.43333543672883</v>
+        <v>10.32819216079146</v>
       </c>
       <c r="E2">
-        <v>15.44254618752152</v>
+        <v>9.984623637141313</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.677402443275819</v>
+        <v>2.093498058181015</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.096773840085076</v>
+        <v>5.157065539852634</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.86077316530296</v>
+        <v>15.96642163773122</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.43863896190724</v>
+        <v>19.83887062511104</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.21185872919236</v>
+        <v>19.2560296888829</v>
       </c>
       <c r="C3">
-        <v>8.212228676119329</v>
+        <v>13.20579875450391</v>
       </c>
       <c r="D3">
-        <v>14.4246015239065</v>
+        <v>10.03516773496032</v>
       </c>
       <c r="E3">
-        <v>15.46646741010058</v>
+        <v>9.850684318845339</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.680198141095391</v>
+        <v>2.101131742943674</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.119585525166983</v>
+        <v>5.205191288149237</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.7166334767016</v>
+        <v>15.14611824195354</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.51686475387129</v>
+        <v>19.60578035094748</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.91519564203852</v>
+        <v>18.3392830251119</v>
       </c>
       <c r="C4">
-        <v>7.934398733388688</v>
+        <v>12.61292223538764</v>
       </c>
       <c r="D4">
-        <v>14.42228448068016</v>
+        <v>9.858801909577334</v>
       </c>
       <c r="E4">
-        <v>15.48404078392964</v>
+        <v>9.775004836513416</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.682004624348735</v>
+        <v>2.105945300927132</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.134454705880648</v>
+        <v>5.236382822285918</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.6308508145606</v>
+        <v>14.62696534188052</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.57275906408025</v>
+        <v>19.48564282139073</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.79320698060694</v>
+        <v>17.95314417713171</v>
       </c>
       <c r="C5">
-        <v>7.818405209404197</v>
+        <v>12.36343298969944</v>
       </c>
       <c r="D5">
-        <v>14.42210716610191</v>
+        <v>9.787892351960483</v>
       </c>
       <c r="E5">
-        <v>15.49192673055767</v>
+        <v>9.745789074176482</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.682763468642071</v>
+        <v>2.107939946097737</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.140731397958101</v>
+        <v>5.24950266348955</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.596607564568</v>
+        <v>14.41173665124428</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.59750487615851</v>
+        <v>19.44226299604602</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.7728904088164</v>
+        <v>17.88826458656946</v>
       </c>
       <c r="C6">
-        <v>7.798981082912236</v>
+        <v>12.32152847062736</v>
       </c>
       <c r="D6">
-        <v>14.42212406363818</v>
+        <v>9.776177925411902</v>
       </c>
       <c r="E6">
-        <v>15.49327992217164</v>
+        <v>9.741035122727441</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.682890846740162</v>
+        <v>2.108273189590137</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.141786780227902</v>
+        <v>5.251705803867758</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.59096546855045</v>
+        <v>14.37578388009642</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.60173251855675</v>
+        <v>19.43539049298284</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.91355464007563</v>
+        <v>18.33412640633854</v>
       </c>
       <c r="C7">
-        <v>7.932845458282475</v>
+        <v>12.60958950266439</v>
       </c>
       <c r="D7">
-        <v>14.42227898316376</v>
+        <v>9.857841616781181</v>
       </c>
       <c r="E7">
-        <v>15.48414420386079</v>
+        <v>9.774604281548015</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.68201476642336</v>
+        <v>2.105972065818519</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.134538474795253</v>
+        <v>5.236558109632055</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.63038606892406</v>
+        <v>14.62407722200413</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.5730848368479</v>
+        <v>19.48503548059996</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.52414553507119</v>
+        <v>20.19166507907402</v>
       </c>
       <c r="C8">
-        <v>8.498846964432841</v>
+        <v>13.8115727519225</v>
       </c>
       <c r="D8">
-        <v>14.42969263390631</v>
+        <v>10.22645981951755</v>
       </c>
       <c r="E8">
-        <v>15.45019477048745</v>
+        <v>9.93706547942544</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.678347785514917</v>
+        <v>2.09610470821495</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.104460519814102</v>
+        <v>5.173315975644703</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.81052767427402</v>
+        <v>15.68691504765822</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.46397397936624</v>
+        <v>19.75361458339577</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.67341620548537</v>
+        <v>23.44654489400309</v>
       </c>
       <c r="C9">
-        <v>9.512614586262963</v>
+        <v>15.92257476633904</v>
       </c>
       <c r="D9">
-        <v>14.46833161239796</v>
+        <v>10.97473764486479</v>
       </c>
       <c r="E9">
-        <v>15.40655472620081</v>
+        <v>10.3087270078103</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.671866700219264</v>
+        <v>2.077695614329587</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.052302903126948</v>
+        <v>5.062530676351025</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.18399534145972</v>
+        <v>17.64067820418372</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>28.31277643831811</v>
+        <v>20.47092417330176</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.47929585843016</v>
+        <v>25.60886273593869</v>
       </c>
       <c r="C10">
-        <v>10.19389893813938</v>
+        <v>17.32675863163933</v>
       </c>
       <c r="D10">
-        <v>14.51129833390848</v>
+        <v>11.53676417390462</v>
       </c>
       <c r="E10">
-        <v>15.38851931266488</v>
+        <v>10.61548347520106</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.667532793677949</v>
+        <v>2.064649527618073</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.018115634011727</v>
+        <v>4.98953391159128</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.46880724780865</v>
+        <v>19.05420166934715</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>28.24043999257902</v>
+        <v>21.12454707623291</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.83589336846554</v>
+        <v>26.54452439511631</v>
       </c>
       <c r="C11">
-        <v>10.48928776472325</v>
+        <v>17.93456046636823</v>
       </c>
       <c r="D11">
-        <v>14.53397640552571</v>
+        <v>11.79459816523408</v>
       </c>
       <c r="E11">
-        <v>15.38336674320291</v>
+        <v>10.76263888406338</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.665653002960921</v>
+        <v>2.058795423459137</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.003454533518958</v>
+        <v>4.958239445310246</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.60022154192679</v>
+        <v>19.75478187673926</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>28.21603768858275</v>
+        <v>21.45140006832998</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.96936915130005</v>
+        <v>26.89208292342574</v>
       </c>
       <c r="C12">
-        <v>10.59900668039275</v>
+        <v>18.16034724369499</v>
       </c>
       <c r="D12">
-        <v>14.54301067386584</v>
+        <v>11.89251569321647</v>
       </c>
       <c r="E12">
-        <v>15.38185463225694</v>
+        <v>10.81948211639692</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.664954283814949</v>
+        <v>2.056588103352948</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.998030426633393</v>
+        <v>4.946673166325347</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.65021522494945</v>
+        <v>20.01520737956713</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>28.20802649150713</v>
+        <v>21.57957038562423</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.94069393663952</v>
+        <v>26.81752806221506</v>
       </c>
       <c r="C13">
-        <v>10.57547253537069</v>
+        <v>18.11191323919822</v>
       </c>
       <c r="D13">
-        <v>14.54104518740944</v>
+        <v>11.871415231625</v>
       </c>
       <c r="E13">
-        <v>15.38216076403102</v>
+        <v>10.8071897337878</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.665104183271275</v>
+        <v>2.057063102095771</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.999192929949135</v>
+        <v>4.949151366053841</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.63943854484846</v>
+        <v>19.95933468266517</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.2096970696514</v>
+        <v>21.55176856610062</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.84690641757254</v>
+        <v>26.573252789417</v>
       </c>
       <c r="C14">
-        <v>10.49835750996148</v>
+        <v>17.95322327300377</v>
       </c>
       <c r="D14">
-        <v>14.53471073395169</v>
+        <v>11.80264838739673</v>
       </c>
       <c r="E14">
-        <v>15.38323354109459</v>
+        <v>10.76729284038076</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.665595256453492</v>
+        <v>2.058613648168592</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.003005731110427</v>
+        <v>4.95728212543208</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.60433015283832</v>
+        <v>19.77630412086915</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>28.21535392782272</v>
+        <v>21.461855694804</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.78925230531394</v>
+        <v>26.42275171222244</v>
       </c>
       <c r="C15">
-        <v>10.45084255390098</v>
+        <v>17.85545386462718</v>
       </c>
       <c r="D15">
-        <v>14.53088873308269</v>
+        <v>11.76056267555767</v>
       </c>
       <c r="E15">
-        <v>15.38394782887506</v>
+        <v>10.74300130091831</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.665897758989019</v>
+        <v>2.059564574364964</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.005357805708599</v>
+        <v>4.962299768541564</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.58285411192415</v>
+        <v>19.66356214711035</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>28.21897920781901</v>
+        <v>21.40735877778478</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.45577941778552</v>
+        <v>25.54676154200621</v>
       </c>
       <c r="C16">
-        <v>10.17429778608628</v>
+        <v>17.28642071826178</v>
       </c>
       <c r="D16">
-        <v>14.509878980823</v>
+        <v>11.51995484841786</v>
       </c>
       <c r="E16">
-        <v>15.38891747770534</v>
+        <v>10.60602167364415</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.667657481902033</v>
+        <v>2.06503355515769</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.019091665939291</v>
+        <v>4.991618318874166</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.46025317646367</v>
+        <v>19.0077291887979</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>28.24220643833035</v>
+        <v>21.10379360147488</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.2485522933814</v>
+        <v>24.99717902420132</v>
       </c>
       <c r="C17">
-        <v>10.00088693370901</v>
+        <v>16.9294588534841</v>
       </c>
       <c r="D17">
-        <v>14.49778985367909</v>
+        <v>11.37287920338915</v>
       </c>
       <c r="E17">
-        <v>15.39274804918625</v>
+        <v>10.52395471584736</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.668760455719391</v>
+        <v>2.068407820782046</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.027744849064796</v>
+        <v>5.010100230388801</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.38548999697144</v>
+        <v>18.6042355790857</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>28.25863853825635</v>
+        <v>20.92523630551891</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.12842581384784</v>
+        <v>24.67654772800378</v>
       </c>
       <c r="C18">
-        <v>9.899780141590526</v>
+        <v>16.72122371429531</v>
       </c>
       <c r="D18">
-        <v>14.4911315953015</v>
+        <v>11.28849007117179</v>
       </c>
       <c r="E18">
-        <v>15.39523854480896</v>
+        <v>10.4774667109662</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.669403495029521</v>
+        <v>2.070356334383889</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.032805804820205</v>
+        <v>5.02090988188532</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.34266470089861</v>
+        <v>18.40349689404643</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>28.26888992414067</v>
+        <v>20.82530423955298</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.08759640134831</v>
+        <v>24.56720589129869</v>
       </c>
       <c r="C19">
-        <v>9.865314249320441</v>
+        <v>16.65021508233056</v>
       </c>
       <c r="D19">
-        <v>14.48892801418372</v>
+        <v>11.25995366117968</v>
       </c>
       <c r="E19">
-        <v>15.39613111035036</v>
+        <v>10.46184873429364</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.669622702904184</v>
+        <v>2.071017454993962</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.034533774276673</v>
+        <v>5.024600385640608</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.32819621122336</v>
+        <v>18.33521363623096</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>28.27249806991958</v>
+        <v>20.79193987818124</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.27070965807233</v>
+        <v>25.05615042551475</v>
       </c>
       <c r="C20">
-        <v>10.01948851903395</v>
+        <v>16.9677597312678</v>
       </c>
       <c r="D20">
-        <v>14.49904624772578</v>
+        <v>11.38851470752867</v>
       </c>
       <c r="E20">
-        <v>15.39231054669436</v>
+        <v>10.53261674435122</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.668642148809266</v>
+        <v>2.068047839437965</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.026815025036331</v>
+        <v>5.008114174879647</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.39343065996999</v>
+        <v>18.64123705688206</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>28.25680645838723</v>
+        <v>20.94395629608158</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.87449732951546</v>
+        <v>26.64518452388622</v>
       </c>
       <c r="C21">
-        <v>10.52106644171516</v>
+        <v>17.99995241890478</v>
       </c>
       <c r="D21">
-        <v>14.53655922963015</v>
+        <v>11.8228394171434</v>
       </c>
       <c r="E21">
-        <v>15.3829065239259</v>
+        <v>10.77898095485775</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.66545066095069</v>
+        <v>2.058157974988815</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.001882355254812</v>
+        <v>4.954886128649149</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.61463638870708</v>
+        <v>19.83019580173446</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.21365895617009</v>
+        <v>21.48814469967885</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.25996722016481</v>
+        <v>27.64440361398851</v>
       </c>
       <c r="C22">
-        <v>10.83639587509705</v>
+        <v>18.64909420094989</v>
       </c>
       <c r="D22">
-        <v>14.56367698602896</v>
+        <v>12.10833103706861</v>
       </c>
       <c r="E22">
-        <v>15.37931956346355</v>
+        <v>10.94652859199172</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.663441260261362</v>
+        <v>2.051748641916402</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.986331776222336</v>
+        <v>4.921760741723012</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.76053044496789</v>
+        <v>20.57928020127201</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>28.19262816721849</v>
+        <v>21.8695109177993</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.05510799359187</v>
+        <v>27.1146479413205</v>
       </c>
       <c r="C23">
-        <v>10.66925441079141</v>
+        <v>18.3049360117867</v>
       </c>
       <c r="D23">
-        <v>14.54896714649543</v>
+        <v>11.95581578939384</v>
       </c>
       <c r="E23">
-        <v>15.38099981367808</v>
+        <v>10.85649842413267</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.664506746747425</v>
+        <v>2.055165203273244</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.994563424674375</v>
+        <v>4.939284845777181</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.68255500664968</v>
+        <v>20.1820300637052</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>28.20319477336776</v>
+        <v>21.66356558565068</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.26069538412787</v>
+        <v>25.02950400862744</v>
       </c>
       <c r="C24">
-        <v>10.01108313222631</v>
+        <v>16.95045329511344</v>
       </c>
       <c r="D24">
-        <v>14.49847732232586</v>
+        <v>11.38144537469912</v>
       </c>
       <c r="E24">
-        <v>15.39250744371042</v>
+        <v>10.52869848332034</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.668695607555608</v>
+        <v>2.068210560050134</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.027235130165138</v>
+        <v>5.009011497661015</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.38984019424099</v>
+        <v>18.62451473408695</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>28.25763223656643</v>
+        <v>20.93548451873098</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.36865806082159</v>
+        <v>22.60678739654474</v>
       </c>
       <c r="C25">
-        <v>9.249224222490117</v>
+        <v>15.37753424256085</v>
       </c>
       <c r="D25">
-        <v>14.4553083926683</v>
+        <v>10.76994837382517</v>
       </c>
       <c r="E25">
-        <v>15.41589984754588</v>
+        <v>10.2023588314408</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.673544529228796</v>
+        <v>2.082584334539914</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.06568514329375</v>
+        <v>5.09105347387406</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.08099138126845</v>
+        <v>17.12699854468093</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>28.34690744910055</v>
+        <v>20.25534367051455</v>
       </c>
     </row>
   </sheetData>
